--- a/excel/Website.xlsx
+++ b/excel/Website.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saurav.Tiwari\eclipse-workspace3\SeleniumFrame\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A761F9-93F2-4F38-A03F-F2A1BF3B28B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6759410A-854C-48CE-9A49-2505BE22F67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">Website </t>
   </si>
@@ -37,6 +33,9 @@
   </si>
   <si>
     <t>https://www.bollywoodlife.com/</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -365,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -376,24 +375,29 @@
     <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
